--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,73 +5,74 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="conns" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="X1_24V_5pin_BCZ" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="X2_48_DC_1778065" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="X8_IO_22pin_B2CF" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="X10_CAN_4pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="LEDsigAx12" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="X5_FBE_12pin_B2CF" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="X6_FB1_8pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="X7_FB2_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="X1_24V_5pin_Microlock" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="X3_DCbus_2pin_pressfit" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="X3_M1_3pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="X4_BR_4pin_Microlock" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="X3_M1_4pin_wago_2626" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="X4_M2_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="XBR_BR_6pin_BLF" sheetId="20" state="visible" r:id="rId22"/>
-    <sheet name="X1_24V_5pin_Microfit" sheetId="21" state="visible" r:id="rId23"/>
-    <sheet name="P7_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
-    <sheet name="P8_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
-    <sheet name="P3_Term_2pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
-    <sheet name="X4_M1_6pin_SLS" sheetId="25" state="visible" r:id="rId27"/>
-    <sheet name="X2_PWR_10pin_BLZP" sheetId="26" state="visible" r:id="rId28"/>
-    <sheet name="X2_320_DC_1778078" sheetId="27" state="visible" r:id="rId29"/>
-    <sheet name="X4_M1_6pin_BLF" sheetId="28" state="visible" r:id="rId30"/>
-    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="29" state="visible" r:id="rId31"/>
-    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="30" state="visible" r:id="rId32"/>
-    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
-    <sheet name="X2_PWR_12pin_BLZ" sheetId="32" state="visible" r:id="rId34"/>
-    <sheet name="X2_D560DCbus" sheetId="33" state="visible" r:id="rId35"/>
-    <sheet name="X3_M1_4pin_wago_2636" sheetId="34" state="visible" r:id="rId36"/>
-    <sheet name="X4_M2_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
-    <sheet name="X14_BR1_4pin_LSF" sheetId="36" state="visible" r:id="rId38"/>
-    <sheet name="X15_BR2_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X1_ACIN_PC5" sheetId="38" state="visible" r:id="rId40"/>
-    <sheet name="X2_DC_8pin_PC5" sheetId="39" state="visible" r:id="rId41"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X3_24V_BLF_2_5" sheetId="41" state="visible" r:id="rId43"/>
-    <sheet name="X5_DI_10pin_B2CF" sheetId="42" state="visible" r:id="rId44"/>
-    <sheet name="X10_DO_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
-    <sheet name="S1_SWITCH_CAN" sheetId="44" state="visible" r:id="rId46"/>
-    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="45" state="visible" r:id="rId47"/>
-    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="46" state="visible" r:id="rId48"/>
-    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
-    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
-    <sheet name="X4_FBE_12pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
-    <sheet name="X5_FB1_10pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
-    <sheet name="X6_FB2_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
-    <sheet name="X7_AIN_12pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
-    <sheet name="X8_DIO_18pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
-    <sheet name="X10_CAN_8pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X11_FB3_10pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X12_UDP_8pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="S1_TGS560_DIP" sheetId="60" state="visible" r:id="rId62"/>
-    <sheet name="LED_TGS560" sheetId="61" state="visible" r:id="rId63"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_24V_5pin_BCZ_D4850" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="X2_48_DC_1778065" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="X8_IO_22pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="X10_CAN_4pin_B2CF" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="LEDsigAx12" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="X5_FBE_12pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="X6_FB1_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="X7_FB2_8pin_B2CF" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="25" state="visible" r:id="rId27"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="26" state="visible" r:id="rId28"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="27" state="visible" r:id="rId29"/>
+    <sheet name="X2_320_DC_1778078" sheetId="28" state="visible" r:id="rId30"/>
+    <sheet name="X4_M1_6pin_BLF" sheetId="29" state="visible" r:id="rId31"/>
+    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="30" state="visible" r:id="rId32"/>
+    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
+    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="32" state="visible" r:id="rId34"/>
+    <sheet name="X2_PWR_12pin_BLZ" sheetId="33" state="visible" r:id="rId35"/>
+    <sheet name="X2_D560DCbus" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X3_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X2_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X6_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="524">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -541,6 +542,12 @@
     <t xml:space="preserve">GND (0 V)</t>
   </si>
   <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nezapojeno</t>
+  </si>
+  <si>
     <t xml:space="preserve">+DC</t>
   </si>
   <si>
@@ -715,9 +722,6 @@
     <t xml:space="preserve">CAN oddělená zem</t>
   </si>
   <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepřipojeno</t>
   </si>
   <si>
@@ -1553,9 +1557,6 @@
   </si>
   <si>
     <t xml:space="preserve">TERM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nezapojeno</t>
   </si>
   <si>
     <t xml:space="preserve">SEL1</t>
@@ -2046,7 +2047,7 @@
       <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.95"/>
@@ -7322,10 +7323,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7337,13 +7338,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,13 +7352,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,13 +7366,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,13 +7380,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,13 +7408,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,13 +7422,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,7 +7439,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>144</v>
@@ -7449,13 +7450,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,10 +7481,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7495,13 +7496,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,13 +7510,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,13 +7524,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,13 +7538,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,13 +7552,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,13 +7566,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,13 +7580,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7610,10 +7639,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7639,13 +7668,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,13 +7682,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7667,13 +7696,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7681,13 +7710,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,13 +7724,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,13 +7738,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,17 +7766,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,13 +7812,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,13 +7826,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,13 +7840,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,19 +7854,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -7850,17 +7896,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7874,7 +7920,7 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,13 +7928,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,22 +7942,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -7927,10 +8012,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -7948,49 +8033,35 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,17 +8083,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8036,69 +8107,58 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8111,17 +8171,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,13 +8203,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,13 +8217,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,22 +8231,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8202,10 +8273,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8231,10 +8302,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>258</v>
@@ -8245,10 +8316,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>258</v>
@@ -8259,26 +8330,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8304,10 +8361,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8333,13 +8390,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,13 +8404,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,13 +8418,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,13 +8432,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8409,7 +8466,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.05"/>
@@ -11436,13 +11493,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -11464,14 +11521,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11479,13 +11536,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11493,13 +11550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11507,41 +11564,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11563,18 +11592,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11595,14 +11623,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+      <c r="B2" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11610,13 +11638,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,13 +11652,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11638,33 +11666,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
+      <c r="B6" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -11677,17 +11722,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
@@ -11713,10 +11758,10 @@
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11724,13 +11769,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11738,13 +11783,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11752,19 +11797,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -11780,10 +11839,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -11810,13 +11869,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,13 +11883,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11838,13 +11897,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11852,13 +11911,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -11877,13 +11936,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -11910,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11924,13 +11983,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>271</v>
+      <c r="D5" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -11949,17 +12036,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,13 +12069,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11995,73 +12083,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12082,168 +12111,112 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D3" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>231</v>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>231</v>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>231</v>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,72 +12238,175 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="D11" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12348,17 +12424,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,10 +12454,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>303</v>
@@ -12394,10 +12468,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>303</v>
@@ -12408,59 +12482,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12478,15 +12507,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12508,13 +12539,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12522,13 +12553,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,14 +12567,59 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>231</v>
-      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12567,7 +12643,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
@@ -12674,17 +12750,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12706,13 +12780,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12720,13 +12794,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12734,59 +12808,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12807,10 +12836,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -12836,13 +12865,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,13 +12879,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,13 +12893,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,13 +12907,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12892,13 +12921,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12906,13 +12935,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12934,16 +12963,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -12966,13 +12995,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12980,13 +13009,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12994,13 +13023,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13008,13 +13037,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13022,13 +13051,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,98 +13065,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13148,10 +13096,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -13177,13 +13125,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13191,44 +13139,154 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13246,16 +13304,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -13278,13 +13336,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13292,45 +13350,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13351,10 +13408,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13380,13 +13437,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13394,13 +13451,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13408,13 +13465,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13422,13 +13479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13453,10 +13510,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13482,13 +13539,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13496,13 +13553,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13510,13 +13567,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13524,13 +13581,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,10 +13612,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13584,13 +13641,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13598,13 +13655,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13612,13 +13669,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13626,13 +13683,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13654,15 +13711,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13684,13 +13743,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13698,13 +13757,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,14 +13771,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13737,17 +13813,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13769,13 +13843,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13783,13 +13857,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13797,96 +13871,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13904,13 +13896,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13931,13 +13928,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13945,13 +13942,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -13970,18 +14009,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14003,13 +14041,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14017,13 +14055,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14031,13 +14069,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14045,14 +14083,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14073,14 +14179,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
@@ -14103,13 +14209,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,13 +14223,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14131,13 +14237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,13 +14251,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -14170,17 +14276,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14193,16 +14300,22 @@
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>350</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14210,10 +14323,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>350</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14221,10 +14337,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>353</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14232,86 +14351,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>353</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14332,13 +14379,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -14358,10 +14405,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,10 +14416,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14380,10 +14427,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14391,10 +14438,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14402,10 +14449,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14413,10 +14460,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,10 +14471,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14435,10 +14482,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,10 +14493,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14457,10 +14504,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14490,11 +14537,11 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
@@ -14503,60 +14550,124 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>379</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>381</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>382</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -14583,102 +14694,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14696,16 +14789,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14713,7 +14807,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14721,7 +14821,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>386</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14729,7 +14835,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>388</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14737,7 +14849,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14745,7 +14863,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14753,63 +14877,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -14828,17 +14902,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14846,10 +14919,7 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14857,10 +14927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14868,10 +14935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14879,10 +14943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,10 +14951,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14901,10 +14959,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14912,10 +14967,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14923,10 +14975,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14934,14 +14983,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14962,13 +15037,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -14980,7 +15055,7 @@
         <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,10 +15063,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14999,10 +15074,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,10 +15085,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,10 +15096,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15032,10 +15107,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15043,10 +15118,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15054,10 +15129,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15068,11 +15143,11 @@
         <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15090,18 +15165,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15109,15 +15183,9 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -15126,16 +15194,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,16 +15205,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,16 +15216,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15177,16 +15227,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15194,16 +15238,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15211,16 +15249,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15228,16 +15260,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15245,88 +15271,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15344,17 +15296,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15375,13 +15323,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,287 +15343,7 @@
         <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -15694,13 +15362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -15713,16 +15381,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15730,16 +15398,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15750,13 +15418,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15764,16 +15432,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15781,16 +15449,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15798,16 +15466,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15815,16 +15483,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15835,7 +15503,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -15852,7 +15520,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -15866,16 +15534,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15883,20 +15551,54 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15917,10 +15619,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -15933,16 +15635,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15950,16 +15652,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15970,7 +15672,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
@@ -15984,16 +15686,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16001,16 +15703,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16018,16 +15720,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16035,16 +15737,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,7 +15757,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -16072,7 +15774,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>65</v>
@@ -16086,16 +15788,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16134,17 +15836,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16152,10 +15855,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16163,10 +15872,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16174,10 +15889,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>402</v>
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16185,10 +15906,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16196,10 +15923,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16207,10 +15940,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16218,10 +15957,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>407</v>
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16229,10 +15974,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>409</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>410</v>
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16240,10 +15991,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>411</v>
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16251,10 +16008,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>412</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>410</v>
+        <v>211</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16262,32 +16025,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>411</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16309,16 +16056,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16338,10 +16085,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16349,10 +16096,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16360,10 +16107,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>404</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16371,10 +16118,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>406</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16382,10 +16129,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>407</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16393,10 +16140,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16404,10 +16151,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>410</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16418,7 +16165,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16426,10 +16173,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16437,10 +16184,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16448,10 +16195,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16459,77 +16206,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16547,16 +16231,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16576,10 +16260,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16587,10 +16271,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16598,10 +16282,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16609,10 +16293,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,10 +16304,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,10 +16315,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16642,10 +16326,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>438</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16653,10 +16337,120 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>440</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -16675,16 +16469,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16704,10 +16498,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16715,10 +16509,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16726,10 +16520,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16737,10 +16531,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16748,10 +16542,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16759,10 +16553,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16770,10 +16564,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,42 +16575,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16837,13 +16600,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16863,10 +16626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16874,10 +16637,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16885,10 +16648,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16896,10 +16659,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16907,10 +16670,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16918,10 +16681,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>465</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16929,10 +16692,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16940,17 +16703,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -16977,17 +16756,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17000,22 +16779,16 @@
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17023,13 +16796,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17037,13 +16807,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17051,13 +16818,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17065,13 +16829,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17079,13 +16840,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>466</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17093,17 +16851,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -17116,6 +16879,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17136,10 +16902,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -17165,13 +16931,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17179,29 +16945,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>473</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -17234,18 +17055,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17267,13 +17087,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17281,56 +17101,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17348,16 +17156,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17379,13 +17187,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17393,13 +17201,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17407,13 +17215,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17421,13 +17229,265 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -17446,243 +17506,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>479</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>482</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>485</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>486</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>487</v>
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>488</v>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17700,204 +17620,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>509</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>479</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>482</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>485</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>488</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+        <v>491</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>495</v>
+      <c r="A8" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>495</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>517</v>
+      <c r="A10" s="13" t="s">
+        <v>487</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>519</v>
+      <c r="A12" s="13" t="s">
+        <v>484</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>520</v>
+      <c r="A13" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>522</v>
+      <c r="A14" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="14"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17915,103 +17874,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18032,10 +18092,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -18061,13 +18121,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18075,13 +18135,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18089,13 +18149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18103,42 +18163,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>472</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -18168,10 +18206,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -18197,13 +18235,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18211,13 +18249,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,13 +18263,149 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18268,39 +18442,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>205</v>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -18319,203 +18540,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18539,7 +18597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -18551,13 +18609,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18565,13 +18623,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18579,13 +18637,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18593,13 +18651,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18607,13 +18665,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18621,13 +18679,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18635,13 +18693,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18649,13 +18707,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18663,13 +18721,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>227</v>
+      <c r="C13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -65,13 +65,13 @@
     <sheet name="X10_CAN_8pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
     <sheet name="X11_FB3_10pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
     <sheet name="X12_UDP_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="X1_ACIN_7pin_2636" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X4_TGS560_50_DCbus" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="60" state="visible" r:id="rId62"/>
     <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
     <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X4_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
     <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
     <sheet name="X0a_48-100-xyz" sheetId="66" state="visible" r:id="rId68"/>
     <sheet name="X0b_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
@@ -2095,8 +2095,8 @@
   </sheetPr>
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H190" activeCellId="0" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13304,7 +13304,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -17780,7 +17780,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18386,8 +18386,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="59"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -48,7 +48,7 @@
     <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
     <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
     <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X2_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
     <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
     <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
     <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
@@ -15056,8 +15056,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17936,7 +17936,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18386,8 +18386,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="53"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="574">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1350,6 +1350,18 @@
     <t xml:space="preserve">RxD-</t>
   </si>
   <si>
+    <t xml:space="preserve">Hengstler Acuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hengstler ACURO link</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIN</t>
   </si>
   <si>
@@ -1797,37 +1809,37 @@
     <t xml:space="preserve">Externí P1000</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC+</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">Buzení resolveru +</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC-</t>
+    <t xml:space="preserve">R1</t>
   </si>
   <si>
     <t xml:space="preserve">Buzení resolveru -</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN+</t>
+    <t xml:space="preserve">S1</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver SIN +</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN-</t>
+    <t xml:space="preserve">S3</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver SIN -</t>
   </si>
   <si>
-    <t xml:space="preserve">COS+</t>
+    <t xml:space="preserve">S2</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver COS +</t>
   </si>
   <si>
-    <t xml:space="preserve">COS-</t>
+    <t xml:space="preserve">S4</t>
   </si>
   <si>
     <t xml:space="preserve">Výstup resolver COS -</t>
@@ -2200,7 +2212,7 @@
   </sheetPr>
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -18033,10 +18045,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18045,6 +18057,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18063,6 +18076,9 @@
       <c r="E1" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -18080,6 +18096,9 @@
       <c r="E2" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -18097,6 +18116,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -18114,6 +18136,9 @@
       <c r="E4" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -18131,6 +18156,9 @@
       <c r="E5" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -18148,6 +18176,9 @@
       <c r="E6" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -18165,6 +18196,9 @@
       <c r="E7" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -18182,6 +18216,9 @@
       <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -18199,6 +18236,9 @@
       <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -18216,6 +18256,9 @@
       <c r="E10" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -18232,6 +18275,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18253,10 +18299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18265,6 +18311,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18283,6 +18330,9 @@
       <c r="E1" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -18300,6 +18350,9 @@
       <c r="E2" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -18317,6 +18370,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -18334,6 +18390,9 @@
       <c r="E4" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -18351,6 +18410,9 @@
       <c r="E5" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -18368,6 +18430,9 @@
       <c r="E6" s="4" t="s">
         <v>401</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -18385,6 +18450,9 @@
       <c r="E7" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -18402,6 +18470,9 @@
       <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -18419,6 +18490,9 @@
       <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -18436,6 +18510,9 @@
       <c r="E10" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -18452,6 +18529,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18502,10 +18582,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18516,7 +18596,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18524,10 +18604,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18535,10 +18615,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18546,10 +18626,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18557,10 +18637,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18568,10 +18648,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18582,7 +18662,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18590,10 +18670,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18604,7 +18684,7 @@
         <v>183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18612,10 +18692,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18626,7 +18706,7 @@
         <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18648,9 +18728,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -18671,8 +18751,8 @@
       <c r="C1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>422</v>
+      <c r="D1" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18680,13 +18760,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18697,10 +18777,10 @@
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>424</v>
+        <v>414</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18708,13 +18788,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18722,13 +18802,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>424</v>
+        <v>416</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18736,13 +18816,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>425</v>
+        <v>419</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18750,13 +18830,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18764,13 +18844,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18778,13 +18858,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18792,13 +18872,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18806,13 +18886,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18820,13 +18900,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18834,41 +18914,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>428</v>
+        <v>442</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18918,7 +18974,7 @@
         <v>199</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18929,7 +18985,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18940,7 +18996,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18951,7 +19007,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18962,7 +19018,7 @@
         <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18973,7 +19029,7 @@
         <v>189</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18984,7 +19040,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18995,7 +19051,7 @@
         <v>185</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19003,10 +19059,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19014,10 +19070,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19025,10 +19081,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19036,10 +19092,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19050,7 +19106,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19061,7 +19117,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19072,7 +19128,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19083,7 +19139,7 @@
         <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19094,7 +19150,7 @@
         <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19105,7 +19161,7 @@
         <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -19153,10 +19209,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19164,10 +19220,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19175,10 +19231,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19186,10 +19242,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19197,10 +19253,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19208,10 +19264,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19219,10 +19275,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19230,10 +19286,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -19281,10 +19337,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19292,10 +19348,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19306,7 +19362,7 @@
         <v>407</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19317,7 +19373,7 @@
         <v>406</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19325,10 +19381,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,7 +19395,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19347,10 +19403,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19358,10 +19414,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19372,7 +19428,7 @@
         <v>406</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19383,7 +19439,7 @@
         <v>407</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19440,10 +19496,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19451,10 +19507,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19462,10 +19518,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19473,10 +19529,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19484,10 +19540,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19495,10 +19551,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19506,10 +19562,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19517,10 +19573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20092,10 +20148,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>331</v>
@@ -20106,10 +20162,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>331</v>
@@ -20194,10 +20250,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>144</v>
@@ -20208,10 +20264,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>144</v>
@@ -20302,162 +20358,162 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C18" s="13"/>
       <c r="H18" s="4"/>
@@ -20465,50 +20521,50 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
@@ -20545,118 +20601,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
@@ -20668,30 +20724,30 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="16"/>
@@ -20893,7 +20949,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>266</v>
@@ -20907,7 +20963,7 @@
         <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>266</v>
@@ -20935,7 +20991,7 @@
         <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>266</v>
@@ -20949,7 +21005,7 @@
         <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>266</v>
@@ -21134,7 +21190,7 @@
         <v>254</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21148,7 +21204,7 @@
         <v>255</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21162,7 +21218,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21176,7 +21232,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21190,7 +21246,7 @@
         <v>252</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -21243,10 +21299,10 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,13 +21310,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21271,10 +21327,10 @@
         <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21285,10 +21341,10 @@
         <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21299,10 +21355,10 @@
         <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21316,7 +21372,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21327,10 +21383,10 @@
         <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21344,7 +21400,7 @@
         <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21355,10 +21411,10 @@
         <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21369,10 +21425,10 @@
         <v>325</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21418,7 +21474,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21444,10 +21500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21455,10 +21511,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21466,10 +21522,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21477,10 +21533,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21488,10 +21544,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21499,10 +21555,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21513,7 +21569,7 @@
         <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21524,7 +21580,7 @@
         <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -975,13 +975,13 @@
     <t xml:space="preserve">+24V DC napájení brzdy</t>
   </si>
   <si>
+    <t xml:space="preserve">+ Brzda servomotoru</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCCD</t>
   </si>
   <si>
     <t xml:space="preserve">+24V DC napájení diag. brzdy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Brzda servomotoru</t>
   </si>
   <si>
     <t xml:space="preserve">- Brzda servomotoru</t>
@@ -14235,10 +14235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14282,10 +14282,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>279</v>
@@ -14296,7 +14296,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>285</v>
@@ -14318,6 +14318,10 @@
       <c r="D5" s="4" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18301,7 +18305,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/Manual/source/tab/connectors.xlsx
+++ b/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -41,42 +41,43 @@
     <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="31" state="visible" r:id="rId33"/>
     <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="32" state="visible" r:id="rId34"/>
     <sheet name="X2_PWR_12pin_BLZ" sheetId="33" state="visible" r:id="rId35"/>
-    <sheet name="X2_D560DCbus" sheetId="34" state="visible" r:id="rId36"/>
-    <sheet name="X3_M1_4pin_wago_2636" sheetId="35" state="visible" r:id="rId37"/>
-    <sheet name="X4_M2_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
-    <sheet name="X14_BR1_4pin_LSF" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X15_BR2_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
-    <sheet name="X1_ACIN_PC5" sheetId="39" state="visible" r:id="rId41"/>
-    <sheet name="X2_DC_8pin_PC5" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="X2_DO_4pin_BCZ" sheetId="41" state="visible" r:id="rId43"/>
-    <sheet name="X3_24V_BLF_2_5" sheetId="42" state="visible" r:id="rId44"/>
-    <sheet name="X5_DI_10pin_B2CF" sheetId="43" state="visible" r:id="rId45"/>
-    <sheet name="X10_DO_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
-    <sheet name="S1_SWITCH_CAN" sheetId="45" state="visible" r:id="rId47"/>
-    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="46" state="visible" r:id="rId48"/>
-    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="47" state="visible" r:id="rId49"/>
-    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
-    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
-    <sheet name="X4_FBE_12pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
-    <sheet name="X5_FB1_10pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
-    <sheet name="X6_FB2_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
-    <sheet name="X7_AIN_12pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
-    <sheet name="X7_AIN_HALL_12pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X8_DIO_18pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X10_CAN_8pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X11_FB3_10pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X12_UDP_8pin_ClikMate" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X1_ACIN_7pin_2636" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="X4_TGS560_50_DCbus" sheetId="60" state="visible" r:id="rId62"/>
-    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="61" state="visible" r:id="rId63"/>
-    <sheet name="S1_TGS560_DIP" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="LED_TGS560" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
-    <sheet name="X4_DC_6pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
-    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="66" state="visible" r:id="rId68"/>
-    <sheet name="X0a_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
-    <sheet name="X0b_48-100-xyz" sheetId="68" state="visible" r:id="rId70"/>
-    <sheet name="X16_RES_8pin_ClikMate" sheetId="69" state="visible" r:id="rId71"/>
+    <sheet name="X2_PWR_DC_12pin_BLZ" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X2_D560DCbus" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="X1_ACIN_PC5" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="X2_DO_4pin_BCZ" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="50" state="visible" r:id="rId52"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
+    <sheet name="X7_AIN_HALL_12pin_ClikMate" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X1_ACIN_7pin_2636" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="X4_TGS560_50_DCbus" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="S1_TGS560_DIP" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="LED_TGS560" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
+    <sheet name="X4_DC_6pin_TGS560_25" sheetId="66" state="visible" r:id="rId68"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="67" state="visible" r:id="rId69"/>
+    <sheet name="X0a_48-100-xyz" sheetId="68" state="visible" r:id="rId70"/>
+    <sheet name="X0b_48-100-xyz" sheetId="69" state="visible" r:id="rId71"/>
+    <sheet name="X16_RES_8pin_ClikMate" sheetId="70" state="visible" r:id="rId72"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="595">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller B2CF se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_B2CF“</t>
   </si>
@@ -1153,6 +1154,21 @@
   </si>
   <si>
     <t xml:space="preserve">-Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu (vstup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu (bez softstartu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Napájení meziobvodu (vstup)</t>
   </si>
   <si>
     <t xml:space="preserve">-DC IN</t>
@@ -2000,7 +2016,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2037,10 +2053,6 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2051,10 +2063,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4023,7 +4031,7 @@
       <c r="F65" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -4367,7 +4375,7 @@
       <c r="F78" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="G78" s="9"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4401,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="9"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="4" t="s">
         <v>19</v>
       </c>
@@ -4419,7 +4427,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="9"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="4" t="s">
         <v>21</v>
       </c>
@@ -4445,7 +4453,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="9"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="4" t="s">
         <v>23</v>
       </c>
@@ -4471,7 +4479,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="9"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="4" t="s">
         <v>25</v>
       </c>
@@ -4497,7 +4505,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="9"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="4" t="s">
         <v>27</v>
       </c>
@@ -4523,7 +4531,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="9"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="4" t="s">
         <v>29</v>
       </c>
@@ -4549,7 +4557,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="9"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="4" t="s">
         <v>31</v>
       </c>
@@ -4577,7 +4585,7 @@
       <c r="F86" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="4" t="s">
         <v>17</v>
       </c>
@@ -4603,7 +4611,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="9"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="4" t="s">
         <v>19</v>
       </c>
@@ -4629,7 +4637,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="9"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="4" t="s">
         <v>21</v>
       </c>
@@ -4655,7 +4663,7 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="9"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="4" t="s">
         <v>23</v>
       </c>
@@ -4681,7 +4689,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="9"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="4" t="s">
         <v>25</v>
       </c>
@@ -4707,7 +4715,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="9"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="4" t="s">
         <v>27</v>
       </c>
@@ -4733,7 +4741,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="4" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +4767,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="9"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
         <v>31</v>
       </c>
@@ -4787,7 +4795,7 @@
       <c r="F94" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="G94" s="9"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4821,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="9"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="4" t="s">
         <v>19</v>
       </c>
@@ -4839,7 +4847,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="9"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="4" t="s">
         <v>21</v>
       </c>
@@ -4865,7 +4873,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="9"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="4" t="s">
         <v>23</v>
       </c>
@@ -4891,7 +4899,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="9"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="4" t="s">
         <v>25</v>
       </c>
@@ -4917,7 +4925,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="9"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="4" t="s">
         <v>27</v>
       </c>
@@ -4943,7 +4951,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="9"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="4" t="s">
         <v>29</v>
       </c>
@@ -4969,7 +4977,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="9"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="4" t="s">
         <v>31</v>
       </c>
@@ -7902,7 +7910,7 @@
       <c r="I213" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J213" s="10" t="s">
+      <c r="J213" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K213" s="7" t="str">
@@ -8137,7 +8145,7 @@
       <c r="I222" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J222" s="10" t="s">
+      <c r="J222" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K222" s="7" t="str">
@@ -8372,7 +8380,7 @@
       <c r="I231" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J231" s="10" t="s">
+      <c r="J231" s="9" t="s">
         <v>75</v>
       </c>
       <c r="K231" s="7" t="str">
@@ -9827,7 +9835,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9985,7 +9993,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10115,7 +10123,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10245,7 +10253,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10432,7 +10440,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10520,7 +10528,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10707,7 +10715,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10809,7 +10817,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10829,7 +10837,7 @@
   </sheetPr>
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -10842,7 +10850,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10920,7 +10928,7 @@
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -10946,7 +10954,7 @@
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -10972,7 +10980,7 @@
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -10998,7 +11006,7 @@
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -11024,7 +11032,7 @@
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -11050,7 +11058,7 @@
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11076,7 +11084,7 @@
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -11102,7 +11110,7 @@
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11128,7 +11136,7 @@
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11154,7 +11162,7 @@
       <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -11180,7 +11188,7 @@
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -11206,7 +11214,7 @@
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -11232,7 +11240,7 @@
       <c r="A16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -11258,7 +11266,7 @@
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -11356,7 +11364,7 @@
       <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -11379,7 +11387,7 @@
       <c r="A22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -11402,7 +11410,7 @@
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -11425,7 +11433,7 @@
       <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -11448,7 +11456,7 @@
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -11471,7 +11479,7 @@
       <c r="A26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -11494,7 +11502,7 @@
       <c r="A27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -11517,7 +11525,7 @@
       <c r="A28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -11540,7 +11548,7 @@
       <c r="A29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -11563,7 +11571,7 @@
       <c r="A30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -11586,7 +11594,7 @@
       <c r="A31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -11609,7 +11617,7 @@
       <c r="A32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -11816,7 +11824,7 @@
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -11839,7 +11847,7 @@
       <c r="A42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -11862,7 +11870,7 @@
       <c r="A43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -11885,7 +11893,7 @@
       <c r="A44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -11931,7 +11939,7 @@
       <c r="A46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -12000,7 +12008,7 @@
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -12023,7 +12031,7 @@
       <c r="A50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -12308,7 +12316,7 @@
       <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="13" t="n">
+      <c r="B63" s="7" t="n">
         <v>5055700401</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -12328,7 +12336,6 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -12343,7 +12350,6 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -12358,7 +12364,6 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -12373,7 +12378,6 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -12388,7 +12392,6 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -12403,7 +12406,6 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -12418,7 +12420,6 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -12433,7 +12434,6 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -12448,7 +12448,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -12463,7 +12462,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -12478,7 +12476,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -12493,7 +12490,6 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -14308,7 +14304,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14357,7 +14353,7 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>281</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -14413,7 +14409,7 @@
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -14427,7 +14423,7 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -14438,7 +14434,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14954,7 +14950,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14986,161 +14982,161 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15353,7 +15349,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15679,7 +15675,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15809,7 +15805,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15830,7 +15826,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16034,6 +16030,217 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16070,13 +16277,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16084,13 +16291,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16164,7 +16371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16253,7 +16460,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16266,7 +16473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16355,7 +16562,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16368,7 +16575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16408,10 +16615,10 @@
         <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16422,10 +16629,10 @@
         <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16433,13 +16640,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16447,17 +16654,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16470,7 +16677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16510,10 +16717,10 @@
         <v>251</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16524,10 +16731,10 @@
         <v>254</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16535,13 +16742,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16549,100 +16756,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16773,6 +16897,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -16805,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>315</v>
@@ -16819,7 +17026,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>317</v>
@@ -16833,7 +17040,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>257</v>
@@ -16847,7 +17054,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>336</v>
@@ -16861,7 +17068,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>311</v>
@@ -16875,7 +17082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>313</v>
@@ -16889,7 +17096,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>320</v>
@@ -16903,7 +17110,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>322</v>
@@ -16913,16 +17120,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16935,7 +17142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16973,10 +17180,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -16987,10 +17194,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -17001,10 +17208,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>158</v>
@@ -17015,10 +17222,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -17035,7 +17242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17073,13 +17280,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17087,13 +17294,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17101,13 +17308,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17115,13 +17322,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -17135,7 +17342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17169,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>214</v>
@@ -17180,7 +17387,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>212</v>
@@ -17191,7 +17398,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>210</v>
@@ -17202,7 +17409,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>208</v>
@@ -17213,7 +17420,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>206</v>
@@ -17224,7 +17431,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>204</v>
@@ -17235,7 +17442,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>202</v>
@@ -17246,7 +17453,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>200</v>
@@ -17257,10 +17464,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17268,10 +17475,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17281,7 +17488,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17294,7 +17501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17328,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>214</v>
@@ -17339,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>212</v>
@@ -17350,7 +17557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>210</v>
@@ -17361,7 +17568,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>208</v>
@@ -17372,7 +17579,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>206</v>
@@ -17383,7 +17590,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>204</v>
@@ -17394,7 +17601,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>202</v>
@@ -17405,7 +17612,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>200</v>
@@ -17416,10 +17623,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17427,10 +17634,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17440,7 +17647,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17453,7 +17660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17473,10 +17680,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>154</v>
@@ -17484,24 +17691,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17535,7 +17742,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17548,7 +17755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17585,10 +17792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -17599,10 +17806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -17616,7 +17823,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>158</v>
@@ -17661,7 +17868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17793,7 +18000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -17911,138 +18118,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="4" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18126,6 +18202,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="4" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -18154,7 +18361,7 @@
         <v>230</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18196,7 +18403,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>84</v>
@@ -18205,7 +18412,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18213,7 +18420,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>84</v>
@@ -18222,7 +18429,7 @@
         <v>245</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18230,7 +18437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>239</v>
@@ -18239,7 +18446,7 @@
         <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18247,7 +18454,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>238</v>
@@ -18256,7 +18463,7 @@
         <v>241</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18307,7 +18514,7 @@
         <v>237</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18324,7 +18531,7 @@
         <v>235</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18362,261 +18569,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18646,7 +18599,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18663,10 +18616,10 @@
         <v>230</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18686,7 +18639,7 @@
         <v>249</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18706,7 +18659,7 @@
         <v>165</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18714,7 +18667,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>84</v>
@@ -18723,7 +18676,7 @@
         <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>84</v>
@@ -18734,7 +18687,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>84</v>
@@ -18743,7 +18696,7 @@
         <v>245</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>84</v>
@@ -18754,7 +18707,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>239</v>
@@ -18763,7 +18716,7 @@
         <v>243</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>242</v>
@@ -18774,7 +18727,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>238</v>
@@ -18783,7 +18736,7 @@
         <v>241</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>240</v>
@@ -18870,7 +18823,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18884,6 +18837,260 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="12"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -18917,10 +19124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18931,7 +19138,7 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18939,10 +19146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18950,10 +19157,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18961,10 +19168,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18972,10 +19179,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18983,10 +19190,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18997,7 +19204,7 @@
         <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19005,10 +19212,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19019,7 +19226,7 @@
         <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19027,10 +19234,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19041,11 +19248,11 @@
         <v>197</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19058,7 +19265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19087,7 +19294,7 @@
         <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19095,13 +19302,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19112,10 +19319,10 @@
         <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19123,13 +19330,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19137,13 +19344,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19151,13 +19358,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19165,13 +19372,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19179,13 +19386,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19193,13 +19400,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19207,13 +19414,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19221,13 +19428,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19235,13 +19442,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19249,17 +19456,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19272,7 +19479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19309,7 +19516,7 @@
         <v>213</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19320,7 +19527,7 @@
         <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19331,7 +19538,7 @@
         <v>209</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19342,7 +19549,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19353,7 +19560,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19364,7 +19571,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19375,7 +19582,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19386,7 +19593,7 @@
         <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19394,10 +19601,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19405,10 +19612,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19416,10 +19623,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19427,10 +19634,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,7 +19648,7 @@
         <v>191</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19452,7 +19659,7 @@
         <v>189</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19463,7 +19670,7 @@
         <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19474,7 +19681,7 @@
         <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19485,7 +19692,7 @@
         <v>183</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19496,7 +19703,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -19510,7 +19717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19544,10 +19751,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19555,10 +19762,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19566,10 +19773,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19577,10 +19784,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19588,10 +19795,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19599,10 +19806,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19610,10 +19817,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19621,10 +19828,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -19638,7 +19845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19672,10 +19879,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19683,10 +19890,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19694,10 +19901,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19705,10 +19912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19716,10 +19923,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19730,7 +19937,7 @@
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19738,10 +19945,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19749,10 +19956,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19760,10 +19967,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19771,10 +19978,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19784,7 +19991,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19797,7 +20004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19831,10 +20038,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19842,10 +20049,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19853,10 +20060,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19864,10 +20071,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19875,10 +20082,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19886,10 +20093,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19897,10 +20104,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19908,10 +20115,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19927,163 +20134,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20454,6 +20505,162 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -20483,13 +20690,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20497,13 +20704,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20547,7 +20754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20585,10 +20792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>158</v>
@@ -20599,10 +20806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>158</v>
@@ -20661,7 +20868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20682,10 +20889,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>154</v>
@@ -20693,216 +20900,216 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>531</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>540</v>
+      <c r="A11" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>528</v>
+      <c r="A12" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="17"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>541</v>
+      <c r="A13" s="15" t="s">
+        <v>546</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>542</v>
+      <c r="A14" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>543</v>
+      <c r="A15" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>525</v>
+      <c r="A16" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>545</v>
+      <c r="A18" s="15" t="s">
+        <v>550</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>544</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>546</v>
+      <c r="A19" s="15" t="s">
+        <v>551</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>547</v>
+      <c r="A20" s="15" t="s">
+        <v>552</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>548</v>
+      <c r="A21" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>549</v>
+      <c r="A22" s="15" t="s">
+        <v>554</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>550</v>
+      <c r="A23" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20915,7 +21122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -20936,188 +21143,188 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="4"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="4"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="4"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="4"/>
-      <c r="J19" s="17"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="4"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -21130,7 +21337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21244,7 +21451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21284,7 +21491,7 @@
         <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>280</v>
@@ -21298,7 +21505,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>280</v>
@@ -21326,7 +21533,7 @@
         <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>280</v>
@@ -21340,7 +21547,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>280</v>
@@ -21380,7 +21587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21483,7 +21690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21525,7 +21732,7 @@
         <v>268</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21539,7 +21746,7 @@
         <v>269</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21553,7 +21760,7 @@
         <v>270</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21567,7 +21774,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21581,7 +21788,7 @@
         <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -21595,7 +21802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21634,10 +21841,10 @@
         <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21645,13 +21852,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21662,10 +21869,10 @@
         <v>245</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21676,10 +21883,10 @@
         <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21690,10 +21897,10 @@
         <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21707,7 +21914,7 @@
         <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21718,10 +21925,10 @@
         <v>156</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21735,7 +21942,7 @@
         <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21746,10 +21953,10 @@
         <v>341</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21760,10 +21967,10 @@
         <v>339</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21789,149 +21996,6 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22030,6 +22094,149 @@
       <c r="D5" s="4" t="s">
         <v>176</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22294,7 +22501,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
